--- a/RobTomb/Data/新建 Microsoft Excel 工作表.xlsx
+++ b/RobTomb/Data/新建 Microsoft Excel 工作表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57680\Desktop\学习\Taiwu_Mods_git\RobTomb\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\The Scroll Of Taiwu\Mods\RobTomb\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7214996-5FBE-4A68-9940-77482715B191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FED67-D7B6-499D-96E0-54657F4449B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyTeam_Date" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="EnemyTeam_Date" localSheetId="0">EnemyTeam_Date!$A$1:$Y$4</definedName>
-    <definedName name="Event_Date" localSheetId="2">Event_Date!$A$1:$M$113</definedName>
+    <definedName name="Event_Date" localSheetId="2">Event_Date!$A$1:$M$115</definedName>
     <definedName name="GongFa_Date" localSheetId="1">GongFa_Date!$A$1:$GS$2</definedName>
     <definedName name="GongFaOtherFPower_Date_1" localSheetId="3">GongFaOtherFPower_Date!$A$1:$M$3</definedName>
     <definedName name="Item_Date" localSheetId="4">Item_Date!$A$1:$GY$12</definedName>
@@ -37,6 +37,43 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>七街城酒</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BF0B1FB0-187A-4D83-9318-7F193EE4BDD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>七街城酒:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2-113行因遗留问题不做统一规范了，其余序号统一规范如下
+1、某个主事件的选项的序号以主事件序号后接01、02、03等为序号，例如主序号为1998，有三个选项，则选项号为199801，199802，199803。
+2、主事件后续的子事件则直接附加序号1、2、3等等
+如主事件为1998，后续有3个子事件，则分别为19981，19982，19983。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -162,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="264">
   <si>
     <t>#</t>
   </si>
@@ -629,24 +666,15 @@
     <t>经过一番小心谨慎地搜索，你成功地在「DN」的墓中找到了一些资源……</t>
   </si>
   <si>
-    <t>19980201|19980202</t>
-  </si>
-  <si>
     <t>找到道具</t>
   </si>
   <si>
     <t>经过一番小心谨慎地搜索，你成功地在「DN」的墓中找到了D0\n</t>
   </si>
   <si>
-    <t>（查看下一件……）</t>
-  </si>
-  <si>
     <t>END&amp;199813&amp;0</t>
   </si>
   <si>
-    <t>（跳过清点……）</t>
-  </si>
-  <si>
     <t>END&amp;199813&amp;1</t>
   </si>
   <si>
@@ -708,9 +736,6 @@
   </si>
   <si>
     <t>END&amp;199803&amp;3</t>
-  </si>
-  <si>
-    <t>MN飞快地清理了一下自己身上的尘土，便在原地静待对方到来。\n“小贼居然已被发现还不逃走，到是颇有几分胆色，只是不知到光有胆量能在我手下撑下几招？”\n说着便一剑刺来……</t>
   </si>
   <si>
     <t>纵使MN全力而施，也未能逃离对方的追捕……\n“今日便是你这小贼的死期！”\n话音未落，对方便已冲了过来……</t>
@@ -946,6 +971,42 @@
   </si>
   <si>
     <t>三华者，玉华、金华、九华也。\n精化为气，气化为神，精气神三化合聚于上丹田，\n如草之开花结子，是为内丹炼成。\n炼精化气，炼气化神，炼神还虚，名为三华聚顶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（跳过清点……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（查看下一件……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（丢弃……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END&amp;199813&amp;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（放回原处……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END&amp;199813&amp;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19980201|19980202|19980203|19980204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19980201|19980202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN飞快地清理了一下自己身上的尘土，便在原地静待对方到来。\n“小贼居然已被发现还不逃走，倒是颇有几分胆色，只是不知光有胆量能在我手下撑下几招？”\n说着便一剑刺来……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +1014,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +1028,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1647,7 +1721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A20E13A-232C-4732-9F62-A77C27FC7A94}">
   <dimension ref="A1:GT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -2312,7 +2386,7 @@
         <v>20409</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1">
         <v>9</v>
@@ -2342,19 +2416,19 @@
         <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O2" s="1">
         <v>680</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q2" s="1">
         <v>20001</v>
@@ -2405,7 +2479,7 @@
         <v>120</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AH2" s="1">
         <v>9</v>
@@ -2824,7 +2898,7 @@
         <v>20408</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -2854,19 +2928,19 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O3" s="1">
         <v>545</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="1">
         <v>235</v>
@@ -2917,7 +2991,7 @@
         <v>120</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AH3" s="1">
         <v>9</v>
@@ -3338,10 +3412,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759CBE4-110A-4047-ACCE-5FC0671FAF53}">
-  <dimension ref="A1:M113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759CBE4-110A-4047-ACCE-5FC0671FAF53}">
+  <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5548,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -5588,7 +5664,7 @@
         <v>1998020</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5597,13 +5673,13 @@
         <v>-1</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F80">
         <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -5620,7 +5696,7 @@
         <v>-1</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -5629,7 +5705,7 @@
         <v>-1</v>
       </c>
       <c r="J81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5646,7 +5722,7 @@
         <v>-1</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -5655,7 +5731,7 @@
         <v>-1</v>
       </c>
       <c r="J82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5666,25 +5742,22 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1998021</v>
-      </c>
-      <c r="B83" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
+        <v>19980203</v>
       </c>
       <c r="D83">
         <v>-1</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
-      <c r="G83" t="s">
-        <v>164</v>
+      <c r="I83">
+        <v>-1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>258</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5695,13 +5768,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>19980211</v>
+        <v>19980204</v>
       </c>
       <c r="D84">
         <v>-1</v>
       </c>
       <c r="E84" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5710,7 +5783,7 @@
         <v>-1</v>
       </c>
       <c r="J84" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5721,10 +5794,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1998022</v>
+        <v>1998021</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5733,13 +5806,13 @@
         <v>-1</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5750,25 +5823,22 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1998023</v>
-      </c>
-      <c r="B86" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
+        <v>19980211</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
-      <c r="G86" t="s">
-        <v>171</v>
+      <c r="I86">
+        <v>-1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>162</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5779,22 +5849,25 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>19980231</v>
+        <v>1998022</v>
+      </c>
+      <c r="B87" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
       </c>
       <c r="D87">
         <v>-1</v>
       </c>
       <c r="E87" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>-1</v>
-      </c>
-      <c r="J87" t="s">
-        <v>173</v>
+      <c r="G87" t="s">
+        <v>165</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5805,22 +5878,25 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>19980232</v>
+        <v>1998023</v>
+      </c>
+      <c r="B88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>-1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>175</v>
+      <c r="G88" t="s">
+        <v>168</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5831,25 +5907,22 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>199802321</v>
-      </c>
-      <c r="B89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
+        <v>19980231</v>
       </c>
       <c r="D89">
         <v>-1</v>
       </c>
       <c r="E89" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
-      <c r="G89">
-        <v>1998023211</v>
+      <c r="I89">
+        <v>-1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>170</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -5860,19 +5933,22 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1998023211</v>
+        <v>19980232</v>
       </c>
       <c r="D90">
         <v>-1</v>
       </c>
       <c r="E90" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="I90">
         <v>-1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>172</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -5883,25 +5959,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>199802322</v>
+        <v>199802321</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>19980231</v>
+        <v>1998023211</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -5912,25 +5988,19 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1998024</v>
-      </c>
-      <c r="B92" t="s">
-        <v>178</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
+        <v>1998023211</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
-      <c r="G92" t="s">
-        <v>180</v>
+      <c r="I92">
+        <v>-1</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -5941,22 +6011,25 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>19980241</v>
+        <v>199802322</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>-1</v>
-      </c>
-      <c r="J93" t="s">
-        <v>181</v>
+      <c r="G93">
+        <v>19980231</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5967,19 +6040,25 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>19980242</v>
+        <v>1998024</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="I94">
-        <v>19980243</v>
+      <c r="G94" t="s">
+        <v>177</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5990,25 +6069,22 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>19980243</v>
-      </c>
-      <c r="B95" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
+        <v>19980241</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
-      <c r="G95">
-        <v>1998024121</v>
+      <c r="I95">
+        <v>-1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>178</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -6019,16 +6095,19 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>19980244</v>
+        <v>19980242</v>
       </c>
       <c r="D96">
         <v>-1</v>
       </c>
       <c r="E96" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F96">
         <v>0</v>
+      </c>
+      <c r="I96">
+        <v>19980243</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -6039,10 +6118,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>199802412</v>
+        <v>19980243</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -6051,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -6068,22 +6147,16 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1998024121</v>
+        <v>19980244</v>
       </c>
       <c r="D98">
         <v>-1</v>
       </c>
       <c r="E98" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="F98">
         <v>0</v>
-      </c>
-      <c r="I98">
-        <v>-1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>185</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -6094,25 +6167,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1998025</v>
+        <v>199802412</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="G99" t="s">
-        <v>168</v>
+      <c r="G99">
+        <v>1998024121</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -6123,25 +6196,22 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1998026</v>
-      </c>
-      <c r="B100" t="s">
-        <v>188</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
+        <v>1998024121</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
-      <c r="G100" t="s">
-        <v>190</v>
+      <c r="I100">
+        <v>-1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>181</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -6152,22 +6222,25 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>19980261</v>
+        <v>1998025</v>
+      </c>
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
       </c>
       <c r="D101">
         <v>-1</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>-1</v>
-      </c>
-      <c r="J101" t="s">
-        <v>192</v>
+      <c r="G101" t="s">
+        <v>165</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -6178,22 +6251,25 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>19980262</v>
+        <v>1998026</v>
+      </c>
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
-      <c r="I102">
-        <v>-1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>194</v>
+      <c r="G102" t="s">
+        <v>186</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -6204,25 +6280,22 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>19980263</v>
-      </c>
-      <c r="B103" t="s">
-        <v>195</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
+        <v>19980261</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E103" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
-      <c r="G103" t="s">
-        <v>168</v>
+      <c r="I103">
+        <v>-1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>188</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -6233,25 +6306,22 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>19980264</v>
-      </c>
-      <c r="B104" t="s">
-        <v>197</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
+        <v>19980262</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E104" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
-      <c r="G104" t="s">
-        <v>168</v>
+      <c r="I104">
+        <v>-1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>190</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -6262,10 +6332,10 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>19980265</v>
+        <v>19980263</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -6274,13 +6344,13 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -6291,10 +6361,10 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1998027</v>
+        <v>19980264</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6303,13 +6373,13 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
-      <c r="G106">
-        <v>19980271</v>
+      <c r="G106" t="s">
+        <v>165</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -6320,22 +6390,25 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>19980271</v>
+        <v>19980265</v>
+      </c>
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
-      <c r="I107">
-        <v>-1</v>
-      </c>
-      <c r="J107" t="s">
-        <v>205</v>
+      <c r="G107" t="s">
+        <v>197</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -6346,10 +6419,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1998028</v>
+        <v>1998027</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -6358,13 +6431,13 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>19980281</v>
+        <v>19980271</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -6375,13 +6448,13 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>19980281</v>
+        <v>19980271</v>
       </c>
       <c r="D109">
         <v>-1</v>
       </c>
       <c r="E109" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6390,7 +6463,7 @@
         <v>-1</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -6401,25 +6474,25 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1998029</v>
+        <v>1998028</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>19980291</v>
+        <v>19980281</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -6430,7 +6503,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>19980291</v>
+        <v>19980281</v>
       </c>
       <c r="D111">
         <v>-1</v>
@@ -6445,7 +6518,7 @@
         <v>-1</v>
       </c>
       <c r="J111" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -6456,10 +6529,10 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1998030</v>
+        <v>1998029</v>
       </c>
       <c r="B112" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -6468,13 +6541,13 @@
         <v>-1</v>
       </c>
       <c r="E112" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>19980301</v>
+        <v>19980291</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -6485,13 +6558,13 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>19980301</v>
+        <v>19980291</v>
       </c>
       <c r="D113">
         <v>-1</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -6500,18 +6573,75 @@
         <v>-1</v>
       </c>
       <c r="J113" t="s">
+        <v>206</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1998030</v>
+      </c>
+      <c r="B114" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>-1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>208</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>19980301</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>19980301</v>
+      </c>
+      <c r="D115">
+        <v>-1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>209</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>-1</v>
+      </c>
+      <c r="J115" t="s">
         <v>50</v>
       </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="M113">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="M115">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6581,7 +6711,7 @@
         <v>20000</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C2">
         <v>20003</v>
@@ -6608,10 +6738,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -6619,7 +6749,7 @@
         <v>19999</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3">
         <v>20009</v>
@@ -6646,10 +6776,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -6657,7 +6787,7 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C4">
         <v>20007</v>
@@ -6684,10 +6814,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6695,7 +6825,7 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C5">
         <v>20007</v>
@@ -6722,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -7420,7 +7550,7 @@
         <v>20000</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7429,7 +7559,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G2">
         <v>8100</v>
@@ -7450,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -7567,13 +7697,13 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="BC2">
         <v>0</v>
@@ -7591,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="BH2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="BI2">
         <v>5000</v>
@@ -8043,7 +8173,7 @@
         <v>20001</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8052,7 +8182,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -8190,10 +8320,10 @@
         <v>0</v>
       </c>
       <c r="AZ3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -8666,7 +8796,7 @@
         <v>20002</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -8675,7 +8805,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G4">
         <v>450</v>
@@ -8813,10 +8943,10 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -9289,7 +9419,7 @@
         <v>20003</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9298,7 +9428,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G5">
         <v>800</v>
@@ -9436,10 +9566,10 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -9912,7 +10042,7 @@
         <v>20004</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -9921,7 +10051,7 @@
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G6">
         <v>1250</v>
@@ -10059,10 +10189,10 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -10535,7 +10665,7 @@
         <v>20005</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -10544,7 +10674,7 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G7">
         <v>1800</v>
@@ -10682,10 +10812,10 @@
         <v>0</v>
       </c>
       <c r="AZ7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -11158,7 +11288,7 @@
         <v>20006</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -11167,7 +11297,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G8">
         <v>2450</v>
@@ -11305,10 +11435,10 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -11781,7 +11911,7 @@
         <v>20007</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -11790,7 +11920,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G9">
         <v>3200</v>
@@ -11928,10 +12058,10 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -12404,7 +12534,7 @@
         <v>20008</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -12413,7 +12543,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G10">
         <v>8100</v>
@@ -12551,10 +12681,10 @@
         <v>0</v>
       </c>
       <c r="AZ10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -13027,7 +13157,7 @@
         <v>20009</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -13036,7 +13166,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G11">
         <v>8100</v>
@@ -13174,10 +13304,10 @@
         <v>0</v>
       </c>
       <c r="AZ11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -13650,7 +13780,7 @@
         <v>20010</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -13659,7 +13789,7 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G12">
         <v>8100</v>
@@ -13797,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -14896,10 +15026,10 @@
         <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -15187,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="CX2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="CY2">
         <v>20000</v>
@@ -15265,7 +15395,7 @@
         <v>0</v>
       </c>
       <c r="DX2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="DY2">
         <v>0</v>
@@ -15436,7 +15566,7 @@
         <v>3101</v>
       </c>
       <c r="GC2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="GD2">
         <v>0</v>
@@ -15622,16 +15752,16 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D2">
         <v>-1</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -15646,7 +15776,7 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -15655,7 +15785,7 @@
         <v>2001</v>
       </c>
       <c r="M2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="N2">
         <v>-1</v>
@@ -15736,16 +15866,16 @@
         <v>1027</v>
       </c>
       <c r="AN2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AO2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AR2">
         <v>-1</v>
